--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-62586-top-by-haul.xlsx
@@ -68,7 +68,7 @@
     <t>Morkva1</t>
   </si>
   <si>
-    <t>55 ч. 45 мин. 0 сек.</t>
+    <t>55 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -122,7 +122,7 @@
     <t>DOORb</t>
   </si>
   <si>
-    <t>34 ч. 54 мин. 3 сек.</t>
+    <t>34 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>31 ч. 10 мин. 7 сек.</t>
+    <t>31 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>urchik</t>
   </si>
   <si>
-    <t>27 ч. 3 мин. 45 сек.</t>
+    <t>27 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -149,7 +149,7 @@
     <t>MrFlag</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 55 сек.</t>
+    <t>27 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -167,7 +167,7 @@
     <t>Redkalee</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 16 сек.</t>
+    <t>24 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -185,7 +185,7 @@
     <t>Speed0034</t>
   </si>
   <si>
-    <t>22 ч. 51 мин. 5 сек.</t>
+    <t>22 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -194,7 +194,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 0 сек.</t>
+    <t>22 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -230,7 +230,7 @@
     <t>Кошечка33</t>
   </si>
   <si>
-    <t>19 ч. 41 мин. 7 сек.</t>
+    <t>19 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -248,7 +248,7 @@
     <t>andreitipo</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 33 сек.</t>
+    <t>19 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -257,7 +257,7 @@
     <t>mercy123</t>
   </si>
   <si>
-    <t>19 ч. 1 мин. 58 сек.</t>
+    <t>19 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -293,7 +293,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -302,7 +302,7 @@
     <t>tritopora</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 41 сек.</t>
+    <t>17 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -356,7 +356,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>15 ч. 8 мин. 33 сек.</t>
+    <t>15 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -590,7 +590,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 33 сек.</t>
+    <t>11 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -599,7 +599,7 @@
     <t>F0oocus</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 34 сек.</t>
+    <t>11 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -779,7 +779,7 @@
     <t>cmdh</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 9 сек.</t>
+    <t>9 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -815,7 +815,7 @@
     <t>zhanna_zzz</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 6 сек.</t>
+    <t>8 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -833,7 +833,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>8 ч. 42 мин. 2 сек.</t>
+    <t>8 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -869,7 +869,7 @@
     <t>aymurza6060</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 1 сек.</t>
+    <t>8 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -896,7 +896,7 @@
     <t>xdg-</t>
   </si>
   <si>
-    <t>8 ч. 27 мин. 1 сек.</t>
+    <t>8 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -977,7 +977,7 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 0 сек.</t>
+    <t>8 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -1031,7 +1031,7 @@
     <t>MisterJay</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 11 сек.</t>
+    <t>8 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -1040,7 +1040,7 @@
     <t>МакарМуратов</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 26 сек.</t>
+    <t>8 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1058,7 +1058,7 @@
     <t>IxC999</t>
   </si>
   <si>
-    <t>7 ч. 54 мин. 3 сек.</t>
+    <t>7 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1148,7 +1148,7 @@
     <t>saben_askhat</t>
   </si>
   <si>
-    <t>7 ч. 26 мин. 4 сек.</t>
+    <t>7 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1202,7 +1202,7 @@
     <t>MindaL</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 16 сек.</t>
+    <t>7 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1211,7 +1211,7 @@
     <t>Spark31</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 56 сек.</t>
+    <t>7 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1220,7 +1220,7 @@
     <t>mutext</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 4 сек.</t>
+    <t>7 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1229,7 +1229,7 @@
     <t>kleshna</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 59 сек.</t>
+    <t>7 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>133</t>
@@ -1238,7 +1238,7 @@
     <t>saxonnasvyazi</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 33 сек.</t>
+    <t>7 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1256,7 +1256,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 9 сек.</t>
+    <t>6 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1403,7 +1403,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>6 ч. 33 мин. 4 сек.</t>
+    <t>6 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1460,7 +1460,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 0 сек.</t>
+    <t>6 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1505,7 +1505,7 @@
     <t>x-sakaev</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 51 сек.</t>
+    <t>6 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>165</t>
@@ -1514,7 +1514,7 @@
     <t>parfenov</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 21 сек.</t>
+    <t>6 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1523,7 +1523,7 @@
     <t>Lulzilla</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 43 сек.</t>
+    <t>6 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>167</t>
@@ -1532,7 +1532,7 @@
     <t>Jamie_Randall</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 36 сек.</t>
+    <t>6 ч. 00 мин. 36 сек.</t>
   </si>
   <si>
     <t>168</t>
@@ -1541,7 +1541,7 @@
     <t>Kantoro</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 34 сек.</t>
+    <t>6 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1550,7 +1550,7 @@
     <t>Murad_Kips</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 26 сек.</t>
+    <t>6 ч. 00 мин. 26 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1559,7 +1559,7 @@
     <t>nardist01</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 7 сек.</t>
+    <t>6 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1568,7 +1568,7 @@
     <t>wm_is_life</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 8 сек.</t>
+    <t>5 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1667,7 +1667,7 @@
     <t>smbody</t>
   </si>
   <si>
-    <t>5 ч. 40 мин. 5 сек.</t>
+    <t>5 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1730,7 +1730,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 0 сек.</t>
+    <t>5 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>190</t>
@@ -1802,7 +1802,7 @@
     <t>NionNet</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 1 сек.</t>
+    <t>5 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1820,7 +1820,7 @@
     <t>phlegmone</t>
   </si>
   <si>
-    <t>5 ч. 25 мин. 7 сек.</t>
+    <t>5 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1865,7 +1865,7 @@
     <t>Rad1</t>
   </si>
   <si>
-    <t>5 ч. 19 мин. 8 сек.</t>
+    <t>5 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>205</t>
@@ -1919,7 +1919,7 @@
     <t>David_96</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 57 сек.</t>
+    <t>5 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>211</t>
@@ -1928,7 +1928,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 25 сек.</t>
+    <t>5 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1937,7 +1937,7 @@
     <t>OggyOne</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 11 сек.</t>
+    <t>5 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>213</t>
@@ -1946,7 +1946,7 @@
     <t>Vsesvet</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>214</t>
@@ -1955,7 +1955,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 24 сек.</t>
+    <t>5 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1964,7 +1964,7 @@
     <t>Sebastien</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 21 сек.</t>
+    <t>5 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1973,7 +1973,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -1982,7 +1982,7 @@
     <t>Kir_V</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -1991,7 +1991,7 @@
     <t>sashokcool</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 42 сек.</t>
+    <t>5 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>219</t>
@@ -2000,7 +2000,7 @@
     <t>lampqweee</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 25 сек.</t>
+    <t>5 ч. 01 мин. 25 сек.</t>
   </si>
   <si>
     <t>220</t>
@@ -2009,7 +2009,7 @@
     <t>severn</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 44 сек.</t>
+    <t>5 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>221</t>
@@ -2063,7 +2063,7 @@
     <t>adonA</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 8 сек.</t>
+    <t>4 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2090,7 +2090,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 7 сек.</t>
+    <t>4 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>230</t>
@@ -2117,7 +2117,7 @@
     <t>Chita</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 3 сек.</t>
+    <t>4 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2183,7 +2183,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2192,7 +2192,7 @@
     <t>blitz_en</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 1 сек.</t>
+    <t>4 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2273,7 +2273,7 @@
     <t>e2e4</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 8 сек.</t>
+    <t>4 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2282,7 +2282,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>4 ч. 28 мин. 0 сек.</t>
+    <t>4 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2318,7 +2318,7 @@
     <t>drool</t>
   </si>
   <si>
-    <t>4 ч. 24 мин. 0 сек.</t>
+    <t>4 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2327,7 +2327,7 @@
     <t>milkmark</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 1 сек.</t>
+    <t>4 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2336,7 +2336,7 @@
     <t>Scarface82</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 9 сек.</t>
+    <t>4 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2354,7 +2354,7 @@
     <t>Nitive</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 1 сек.</t>
+    <t>4 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2408,7 +2408,7 @@
     <t>muhammadali</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 0 сек.</t>
+    <t>4 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2453,7 +2453,7 @@
     <t>bulatenkom</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 4 сек.</t>
+    <t>4 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2498,7 +2498,7 @@
     <t>madhoney123</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 2 сек.</t>
+    <t>4 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2507,7 +2507,7 @@
     <t>DehoffEgor</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 8 сек.</t>
+    <t>4 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2516,7 +2516,7 @@
     <t>Cevorodis</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 7 сек.</t>
+    <t>4 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>278</t>
@@ -2525,7 +2525,7 @@
     <t>stuk_alex</t>
   </si>
   <si>
-    <t>4 ч. 10 мин. 5 сек.</t>
+    <t>4 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2534,7 +2534,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 24 сек.</t>
+    <t>4 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2543,7 +2543,7 @@
     <t>nuvvse</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 3 сек.</t>
+    <t>4 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2552,7 +2552,7 @@
     <t>omaraga</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 39 сек.</t>
+    <t>4 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2561,7 +2561,7 @@
     <t>Skupra</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 14 сек.</t>
+    <t>4 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2570,7 +2570,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 29 сек.</t>
+    <t>4 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2579,7 +2579,7 @@
     <t>Тираэль</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 15 сек.</t>
+    <t>4 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2588,7 +2588,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2597,7 +2597,7 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 35 сек.</t>
+    <t>4 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>287</t>
@@ -2606,7 +2606,7 @@
     <t>Victor_storm</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 2 сек.</t>
+    <t>4 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2615,7 +2615,7 @@
     <t>89514105226</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 44 сек.</t>
+    <t>4 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2624,7 +2624,7 @@
     <t>shiroman</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 26 сек.</t>
+    <t>4 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2633,7 +2633,7 @@
     <t>ruhe</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 1 сек.</t>
+    <t>4 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>291</t>
@@ -2642,7 +2642,7 @@
     <t>nutipaprivet</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 31 сек.</t>
+    <t>4 ч. 01 мин. 31 сек.</t>
   </si>
   <si>
     <t>292</t>
@@ -2651,7 +2651,7 @@
     <t>ilchu</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 20 сек.</t>
+    <t>4 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>293</t>
@@ -2678,7 +2678,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 9 сек.</t>
+    <t>3 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>296</t>
@@ -2687,7 +2687,7 @@
     <t>AHTOH</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 7 сек.</t>
+    <t>3 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>297</t>
@@ -2759,7 +2759,7 @@
     <t>badik123</t>
   </si>
   <si>
-    <t>3 ч. 51 мин. 6 сек.</t>
+    <t>3 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>305</t>
@@ -2786,7 +2786,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 6 сек.</t>
+    <t>3 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2831,7 +2831,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 7 сек.</t>
+    <t>3 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>313</t>
@@ -2951,7 +2951,7 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 1 сек.</t>
+    <t>3 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -3023,7 +3023,7 @@
     <t>Sofi15050888</t>
   </si>
   <si>
-    <t>3 ч. 36 мин. 1 сек.</t>
+    <t>3 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>335</t>
@@ -3068,7 +3068,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 9 сек.</t>
+    <t>3 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>340</t>
@@ -3311,7 +3311,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 1 сек.</t>
+    <t>3 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3341,7 +3341,7 @@
     <t>lxndrdnlv</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 6 сек.</t>
+    <t>3 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3386,7 +3386,7 @@
     <t>MachoMaNNN</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>376</t>
@@ -3395,7 +3395,7 @@
     <t>monetka</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 6 сек.</t>
+    <t>3 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>377</t>
@@ -3440,7 +3440,7 @@
     <t>baalexxx</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 9 сек.</t>
+    <t>3 ч. 15 мин. 09 сек.</t>
   </si>
   <si>
     <t>382</t>
@@ -3449,7 +3449,7 @@
     <t>Библиотека</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 3 сек.</t>
+    <t>3 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>383</t>
@@ -3485,7 +3485,7 @@
     <t>xetd71</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 8 сек.</t>
+    <t>3 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>387</t>
@@ -3494,7 +3494,7 @@
     <t>Клоподав</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 51 сек.</t>
+    <t>3 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>388</t>
@@ -3503,7 +3503,7 @@
     <t>wilsonept</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3512,7 +3512,7 @@
     <t>coffeek</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 54 сек.</t>
+    <t>3 ч. 08 мин. 54 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3521,7 +3521,7 @@
     <t>vulpinex</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 34 сек.</t>
+    <t>3 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3530,7 +3530,7 @@
     <t>Bhiopk</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 9 сек.</t>
+    <t>3 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>392</t>
@@ -3539,7 +3539,7 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 45 сек.</t>
+    <t>3 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3548,7 +3548,7 @@
     <t>ollu</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 43 сек.</t>
+    <t>3 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3557,7 +3557,7 @@
     <t>exektc</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 34 сек.</t>
+    <t>3 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>395</t>
@@ -3566,7 +3566,7 @@
     <t>nikogo</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 49 сек.</t>
+    <t>3 ч. 06 мин. 49 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3575,7 +3575,7 @@
     <t>SkiperUA</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -3584,7 +3584,7 @@
     <t>andech</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 28 сек.</t>
+    <t>3 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3593,7 +3593,7 @@
     <t>angeldeath29</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 28 сек.</t>
+    <t>3 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3602,7 +3602,7 @@
     <t>Cinnamon88</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 58 сек.</t>
+    <t>3 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>400</t>
@@ -3611,7 +3611,7 @@
     <t>Kettu</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 57 сек.</t>
+    <t>3 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>401</t>
@@ -3620,7 +3620,7 @@
     <t>Timurito</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 45 сек.</t>
+    <t>3 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>402</t>
@@ -3629,7 +3629,7 @@
     <t>-insOMnia-</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 15 сек.</t>
+    <t>3 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>403</t>
@@ -3638,7 +3638,7 @@
     <t>loject</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 39 сек.</t>
+    <t>3 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>404</t>
@@ -3647,7 +3647,7 @@
     <t>NoX111</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 59 сек.</t>
+    <t>3 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>405</t>
@@ -3656,7 +3656,7 @@
     <t>Ampil</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 34 сек.</t>
+    <t>3 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>406</t>
@@ -3683,7 +3683,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>409</t>
@@ -3701,7 +3701,7 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 6 сек.</t>
+    <t>2 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>411</t>
@@ -3719,7 +3719,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3728,7 +3728,7 @@
     <t>BrainDrain</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>414</t>
@@ -3872,7 +3872,7 @@
     <t>PetWussy</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 5 сек.</t>
+    <t>2 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>430</t>
@@ -3881,7 +3881,7 @@
     <t>yapoehal</t>
   </si>
   <si>
-    <t>2 ч. 52 мин. 0 сек.</t>
+    <t>2 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>431</t>
@@ -3899,7 +3899,7 @@
     <t>novax</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 5 сек.</t>
+    <t>2 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>433</t>
@@ -3962,7 +3962,7 @@
     <t>semenkorolev</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3998,7 +3998,7 @@
     <t>kvdum</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 7 сек.</t>
+    <t>2 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4079,7 +4079,7 @@
     <t>spirit2</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>453–454</t>
@@ -4226,7 +4226,7 @@
     <t>bukasashka</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4271,7 +4271,7 @@
     <t>shuko</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 4 сек.</t>
+    <t>2 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4280,7 +4280,7 @@
     <t>smale</t>
   </si>
   <si>
-    <t>2 ч. 39 мин. 3 сек.</t>
+    <t>2 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4298,7 +4298,7 @@
     <t>Хуля</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 4 сек.</t>
+    <t>2 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>478</t>
@@ -4325,7 +4325,7 @@
     <t>Sergey_Perm</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 9 сек.</t>
+    <t>2 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4334,7 +4334,7 @@
     <t>Адиль777</t>
   </si>
   <si>
-    <t>2 ч. 37 мин. 4 сек.</t>
+    <t>2 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4379,7 +4379,7 @@
     <t>Hexan</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 3 сек.</t>
+    <t>2 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>487</t>
@@ -4415,7 +4415,7 @@
     <t>unehend</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 2 сек.</t>
+    <t>2 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -4586,7 +4586,7 @@
     <t>screepa</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 6 сек.</t>
+    <t>2 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>510</t>
@@ -4622,7 +4622,7 @@
     <t>Tottiwa</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 3 сек.</t>
+    <t>2 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4631,7 +4631,7 @@
     <t>Desin</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 1 сек.</t>
+    <t>2 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>515</t>
@@ -4766,7 +4766,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 3 сек.</t>
+    <t>2 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>530</t>
@@ -4973,7 +4973,7 @@
     <t>lolka228ss</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 6 сек.</t>
+    <t>2 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>553</t>
@@ -5003,7 +5003,7 @@
     <t>Pikachu_Ha</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 9 сек.</t>
+    <t>2 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>557</t>
@@ -5012,7 +5012,7 @@
     <t>AccuracyFirst</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 8 сек.</t>
+    <t>2 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>558</t>
@@ -5183,7 +5183,7 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>577</t>
@@ -5237,7 +5237,7 @@
     <t>xthh</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>583</t>
@@ -5246,7 +5246,7 @@
     <t>iguanaz</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 47 сек.</t>
+    <t>2 ч. 09 мин. 47 сек.</t>
   </si>
   <si>
     <t>584</t>
@@ -5255,7 +5255,7 @@
     <t>pinkPockemon</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 36 сек.</t>
+    <t>2 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>585</t>
@@ -5264,7 +5264,7 @@
     <t>xifiwejod</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>586</t>
@@ -5273,7 +5273,7 @@
     <t>Bulo4kasmyasom</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 4 сек.</t>
+    <t>2 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>587</t>
@@ -5282,7 +5282,7 @@
     <t>Packito</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>588</t>
@@ -5291,7 +5291,7 @@
     <t>Dilfa</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 34 сек.</t>
+    <t>2 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>589–590</t>
@@ -5300,7 +5300,7 @@
     <t>chernyshov_ip</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 23 сек.</t>
+    <t>2 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>Hydrargyrum</t>
@@ -5312,7 +5312,7 @@
     <t>kolos2000</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 18 сек.</t>
+    <t>2 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>anclaw</t>
@@ -5327,7 +5327,7 @@
     <t>brolnickij</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>595</t>
@@ -5336,7 +5336,7 @@
     <t>droom</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>596</t>
@@ -5345,7 +5345,7 @@
     <t>Galebickosikasa</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 36 сек.</t>
+    <t>2 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>597</t>
@@ -5354,7 +5354,7 @@
     <t>Quadrivium</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 51 сек.</t>
+    <t>2 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5363,7 +5363,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 29 сек.</t>
+    <t>2 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>599</t>
@@ -5372,7 +5372,7 @@
     <t>vasya555</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 28 сек.</t>
+    <t>2 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>600</t>
@@ -5381,7 +5381,7 @@
     <t>оральныйДемон</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 25 сек.</t>
+    <t>2 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>601</t>
@@ -5390,7 +5390,7 @@
     <t>thomosyan</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 16 сек.</t>
+    <t>2 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>602</t>
@@ -5399,7 +5399,7 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 49 сек.</t>
+    <t>2 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -5408,7 +5408,7 @@
     <t>КВАКША</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 24 сек.</t>
+    <t>2 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>604</t>
@@ -5417,7 +5417,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 15 сек.</t>
+    <t>2 ч. 05 мин. 15 сек.</t>
   </si>
   <si>
     <t>605</t>
@@ -5426,7 +5426,7 @@
     <t>martast</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 4 сек.</t>
+    <t>2 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -5435,7 +5435,7 @@
     <t>pblk</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 2 сек.</t>
+    <t>2 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>607</t>
@@ -5444,7 +5444,7 @@
     <t>stay_strong</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 52 сек.</t>
+    <t>2 ч. 04 мин. 52 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5453,7 +5453,7 @@
     <t>Headbug</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 38 сек.</t>
+    <t>2 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>609</t>
@@ -5462,7 +5462,7 @@
     <t>PVV</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 28 сек.</t>
+    <t>2 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>610</t>
@@ -5471,7 +5471,7 @@
     <t>mishka22</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>611</t>
@@ -5480,7 +5480,7 @@
     <t>jhop</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 12 сек.</t>
+    <t>2 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>612</t>
@@ -5489,7 +5489,7 @@
     <t>Shivaki</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 5 сек.</t>
+    <t>2 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>613</t>
@@ -5498,7 +5498,7 @@
     <t>holysheep</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>614</t>
@@ -5507,7 +5507,7 @@
     <t>freelancerUz</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>615</t>
@@ -5516,7 +5516,7 @@
     <t>maks-</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>616</t>
@@ -5525,7 +5525,7 @@
     <t>osipetka</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 32 сек.</t>
+    <t>2 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>617</t>
@@ -5534,7 +5534,7 @@
     <t>nakl</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 14 сек.</t>
+    <t>2 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>618</t>
@@ -5543,7 +5543,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 1 сек.</t>
+    <t>2 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5552,7 +5552,7 @@
     <t>sorax</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 0 сек.</t>
+    <t>2 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>620</t>
@@ -5561,7 +5561,7 @@
     <t>bakytbek007</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>621</t>
@@ -5570,7 +5570,7 @@
     <t>Mansur_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 56 сек.</t>
+    <t>2 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>622</t>
@@ -5579,7 +5579,7 @@
     <t>Aiswer</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>623</t>
@@ -5588,7 +5588,7 @@
     <t>CTuKEP</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 36 сек.</t>
+    <t>2 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>624</t>
@@ -5597,7 +5597,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 30 сек.</t>
+    <t>2 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>625</t>
@@ -5606,7 +5606,7 @@
     <t>Shikari_</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 29 сек.</t>
+    <t>2 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>626</t>
@@ -5615,7 +5615,7 @@
     <t>AiDpiv</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 26 сек.</t>
+    <t>2 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>627</t>
@@ -5624,7 +5624,7 @@
     <t>petrochen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 21 сек.</t>
+    <t>2 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>628</t>
@@ -5633,7 +5633,7 @@
     <t>baser42</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 2 сек.</t>
+    <t>2 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>629</t>
@@ -5642,7 +5642,7 @@
     <t>AG1</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 55 сек.</t>
+    <t>2 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>630</t>
@@ -5651,7 +5651,7 @@
     <t>zujen</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 41 сек.</t>
+    <t>2 ч. 01 мин. 41 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5660,7 +5660,7 @@
     <t>Waleria</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 37 сек.</t>
+    <t>2 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>632</t>
@@ -5669,7 +5669,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 32 сек.</t>
+    <t>2 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>633</t>
@@ -5678,7 +5678,7 @@
     <t>annv</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 26 сек.</t>
+    <t>2 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>634</t>
@@ -5687,7 +5687,7 @@
     <t>Irina_25</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 20 сек.</t>
+    <t>2 ч. 01 мин. 20 сек.</t>
   </si>
   <si>
     <t>635–636</t>
@@ -5696,7 +5696,7 @@
     <t>oaoaoaoa2</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>ZverikK</t>
@@ -5708,7 +5708,7 @@
     <t>FD70000000</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 42 сек.</t>
+    <t>2 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>638</t>
@@ -5717,7 +5717,7 @@
     <t>SilverVVolf</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 33 сек.</t>
+    <t>2 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>639</t>
@@ -5726,7 +5726,7 @@
     <t>LADA220876</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 24 сек.</t>
+    <t>2 ч. 00 мин. 24 сек.</t>
   </si>
   <si>
     <t>640</t>
@@ -5735,7 +5735,7 @@
     <t>Phemmer</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 20 сек.</t>
+    <t>2 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>641</t>
@@ -5780,7 +5780,7 @@
     <t>Awyra2</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 4 сек.</t>
+    <t>1 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>646</t>
@@ -5789,7 +5789,7 @@
     <t>bookSir</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 2 сек.</t>
+    <t>1 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>647</t>
@@ -5861,7 +5861,7 @@
     <t>zzzsss</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 7 сек.</t>
+    <t>1 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>655</t>
@@ -5870,7 +5870,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 6 сек.</t>
+    <t>1 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>656</t>
@@ -5879,7 +5879,7 @@
     <t>coffee_machine</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>657</t>
@@ -5888,7 +5888,7 @@
     <t>Jellyfishka</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 1 сек.</t>
+    <t>1 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>658</t>
@@ -5951,7 +5951,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 7 сек.</t>
+    <t>1 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>665</t>
@@ -5960,7 +5960,7 @@
     <t>elektrolobzik</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 2 сек.</t>
+    <t>1 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>666</t>
@@ -5987,7 +5987,7 @@
     <t>alexandr-ftf</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 8 сек.</t>
+    <t>1 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>669</t>
@@ -5996,7 +5996,7 @@
     <t>budeyshin</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 0 сек.</t>
+    <t>1 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>670</t>
@@ -6044,7 +6044,7 @@
     <t>Kruzo</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>676</t>
@@ -6080,7 +6080,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>680</t>
@@ -6125,7 +6125,7 @@
     <t>north_air</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>685</t>
@@ -6218,7 +6218,7 @@
     <t>bremsen</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 4 сек.</t>
+    <t>1 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>696</t>
@@ -6227,7 +6227,7 @@
     <t>nevans</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 3 сек.</t>
+    <t>1 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>697–698</t>
@@ -6302,7 +6302,7 @@
     <t>topkek</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 4 сек.</t>
+    <t>1 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>706</t>
@@ -6311,7 +6311,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 3 сек.</t>
+    <t>1 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>707</t>
@@ -6356,7 +6356,7 @@
     <t>QQ-Mash</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -6401,7 +6401,7 @@
     <t>NoNesmer</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 6 сек.</t>
+    <t>1 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>717</t>
@@ -6455,7 +6455,7 @@
     <t>Ukr_Top</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>723</t>
@@ -6545,7 +6545,7 @@
     <t>ASFree</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 3 сек.</t>
+    <t>1 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>luminofer</t>
@@ -6686,7 +6686,7 @@
     <t>маркелов</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 3 сек.</t>
+    <t>1 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>fayzov</t>
@@ -6782,7 +6782,7 @@
     <t>for2ne</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 3 сек.</t>
+    <t>1 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -6872,7 +6872,7 @@
     <t>fedor229</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 9 сек.</t>
+    <t>1 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>772</t>
@@ -6881,7 +6881,7 @@
     <t>one85two</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 6 сек.</t>
+    <t>1 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>773</t>
@@ -6890,7 +6890,7 @@
     <t>S_T_A_L_K_E_R</t>
   </si>
   <si>
-    <t>1 ч. 37 мин. 0 сек.</t>
+    <t>1 ч. 37 мин. 00 сек.</t>
   </si>
   <si>
     <t>774</t>
@@ -6935,7 +6935,7 @@
     <t>maxim1993</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 9 сек.</t>
+    <t>1 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>779</t>
@@ -6944,7 +6944,7 @@
     <t>sasha00123</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 5 сек.</t>
+    <t>1 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>780</t>
@@ -6980,7 +6980,7 @@
     <t>OlegChek</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 9 сек.</t>
+    <t>1 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>784</t>
@@ -6989,7 +6989,7 @@
     <t>PelmeniEnshtein</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 0 сек.</t>
+    <t>1 ч. 35 мин. 00 сек.</t>
   </si>
   <si>
     <t>785</t>
@@ -7193,7 +7193,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 6 сек.</t>
+    <t>1 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>809</t>
@@ -7265,7 +7265,7 @@
     <t>karpeka</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 1 сек.</t>
+    <t>1 ч. 31 мин. 01 сек.</t>
   </si>
   <si>
     <t>817</t>
@@ -7310,7 +7310,7 @@
     <t>YaroslavSh</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 4 сек.</t>
+    <t>1 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>822</t>
@@ -7319,7 +7319,7 @@
     <t>allfastiko</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 1 сек.</t>
+    <t>1 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>823</t>
@@ -7409,7 +7409,7 @@
     <t>sun_in_glass</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 7 сек.</t>
+    <t>1 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>833</t>
@@ -7463,7 +7463,7 @@
     <t>damir27</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>839</t>
@@ -7472,7 +7472,7 @@
     <t>sultanfect</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>840</t>
@@ -7508,7 +7508,7 @@
     <t>Lyonov</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 8 сек.</t>
+    <t>1 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>844</t>
@@ -7517,7 +7517,7 @@
     <t>BogdanK</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 3 сек.</t>
+    <t>1 ч. 27 мин. 03 сек.</t>
   </si>
   <si>
     <t>845</t>
@@ -7526,7 +7526,7 @@
     <t>Мелитина</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>846</t>
@@ -7580,7 +7580,7 @@
     <t>n1c3r</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 6 сек.</t>
+    <t>1 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>852</t>
@@ -7688,7 +7688,7 @@
     <t>salivan1995</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 9 сек.</t>
+    <t>1 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7697,7 +7697,7 @@
     <t>icelin</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 0 сек.</t>
+    <t>1 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>865</t>
@@ -7835,7 +7835,7 @@
     <t>lizardking</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 1 сек.</t>
+    <t>1 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>881</t>
@@ -7871,7 +7871,7 @@
     <t>2020OK</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 9 сек.</t>
+    <t>1 ч. 21 мин. 09 сек.</t>
   </si>
   <si>
     <t>885</t>
@@ -7880,7 +7880,7 @@
     <t>mynque</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>886</t>
@@ -7952,7 +7952,7 @@
     <t>napz</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 9 сек.</t>
+    <t>1 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>894–895</t>
@@ -7961,7 +7961,7 @@
     <t>Igem</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>kxinekton</t>
@@ -8060,7 +8060,7 @@
     <t>tanyaret</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 6 сек.</t>
+    <t>1 ч. 18 мин. 06 сек.</t>
   </si>
   <si>
     <t>908</t>
@@ -8198,7 +8198,7 @@
     <t>tytylik</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 4 сек.</t>
+    <t>1 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>924</t>
@@ -8291,7 +8291,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>935</t>
@@ -8480,7 +8480,7 @@
     <t>JustTrain</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 5 сек.</t>
+    <t>1 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>956</t>
@@ -8597,7 +8597,7 @@
     <t>Продается</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 5 сек.</t>
+    <t>1 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>969</t>
@@ -8690,7 +8690,7 @@
     <t>nikbstar</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 6 сек.</t>
+    <t>1 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>980</t>
@@ -8699,7 +8699,7 @@
     <t>Jelik</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 58 сек.</t>
+    <t>1 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>981</t>
@@ -8708,7 +8708,7 @@
     <t>ЕРГ</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 53 сек.</t>
+    <t>1 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>982</t>
@@ -8717,7 +8717,7 @@
     <t>FICHAS</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>983</t>
@@ -8726,7 +8726,7 @@
     <t>vaihayasa</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 36 сек.</t>
+    <t>1 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>984</t>
@@ -8735,7 +8735,7 @@
     <t>smith-</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 21 сек.</t>
+    <t>1 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>985</t>
@@ -8744,7 +8744,7 @@
     <t>Wedgewood</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 59 сек.</t>
+    <t>1 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>986</t>
@@ -8753,7 +8753,7 @@
     <t>Likmor</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 43 сек.</t>
+    <t>1 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>987</t>
@@ -8762,7 +8762,7 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 38 сек.</t>
+    <t>1 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>988</t>
@@ -8771,7 +8771,7 @@
     <t>Berkana</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 37 сек.</t>
+    <t>1 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>989</t>
@@ -8780,7 +8780,7 @@
     <t>Alukos</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 29 сек.</t>
+    <t>1 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>990</t>
@@ -8789,7 +8789,7 @@
     <t>svoemesto</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 14 сек.</t>
+    <t>1 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>991</t>
@@ -8798,7 +8798,7 @@
     <t>SaLatIk</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 11 сек.</t>
+    <t>1 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>992</t>
@@ -8807,7 +8807,7 @@
     <t>kurtyaxa</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 10 сек.</t>
+    <t>1 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>993</t>
@@ -8816,7 +8816,7 @@
     <t>h0rr0r</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 58 сек.</t>
+    <t>1 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>994</t>
@@ -8825,7 +8825,7 @@
     <t>paulzzz</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 41 сек.</t>
+    <t>1 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>995</t>
@@ -8834,7 +8834,7 @@
     <t>Mindal2</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 17 сек.</t>
+    <t>1 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>996</t>
@@ -8843,7 +8843,7 @@
     <t>fncg32</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 16 сек.</t>
+    <t>1 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>997</t>
@@ -8852,7 +8852,7 @@
     <t>Lokomoko</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 8 сек.</t>
+    <t>1 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>998</t>
@@ -8861,7 +8861,7 @@
     <t>Нур-Султан</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 51 сек.</t>
+    <t>1 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>999</t>
@@ -8870,7 +8870,7 @@
     <t>Декарт</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 17 сек.</t>
+    <t>1 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>1000</t>
@@ -8879,7 +8879,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 12 сек.</t>
+    <t>1 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>1001</t>
@@ -8888,7 +8888,7 @@
     <t>Tan_ker</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>1002</t>
@@ -8897,7 +8897,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 52 сек.</t>
+    <t>1 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>1003–1004</t>
@@ -8906,7 +8906,7 @@
     <t>Manmax10</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 49 сек.</t>
+    <t>1 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>Racer729</t>
@@ -8918,7 +8918,7 @@
     <t>BLACK_RAMA</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 46 сек.</t>
+    <t>1 ч. 05 мин. 46 сек.</t>
   </si>
   <si>
     <t>1006</t>
@@ -8927,7 +8927,7 @@
     <t>AlexFox</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>1007</t>
@@ -8936,7 +8936,7 @@
     <t>Cinapc</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 19 сек.</t>
+    <t>1 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>1008</t>
@@ -8945,7 +8945,7 @@
     <t>alhray</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 17 сек.</t>
+    <t>1 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>1009</t>
@@ -8954,7 +8954,7 @@
     <t>Игра_слов</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 12 сек.</t>
+    <t>1 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>1010</t>
@@ -8963,7 +8963,7 @@
     <t>mzda</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 11 сек.</t>
+    <t>1 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>1011</t>
@@ -8972,7 +8972,7 @@
     <t>Bacardi333</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 10 сек.</t>
+    <t>1 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>1012</t>
@@ -8981,7 +8981,7 @@
     <t>boxfrommars</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 54 сек.</t>
+    <t>1 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>1013–1014</t>
@@ -8990,7 +8990,7 @@
     <t>lulaMay</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>4bia</t>
@@ -9002,7 +9002,7 @@
     <t>NeviD</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>zualex32</t>
@@ -9014,7 +9014,7 @@
     <t>AlexSIBER</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 22 сек.</t>
+    <t>1 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>1018</t>
@@ -9023,7 +9023,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 19 сек.</t>
+    <t>1 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>1019</t>
@@ -9032,7 +9032,7 @@
     <t>Almazka</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 12 сек.</t>
+    <t>1 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>1020</t>
@@ -9041,7 +9041,7 @@
     <t>bangcurryabd</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>1021</t>
@@ -9050,7 +9050,7 @@
     <t>GhostX</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 1 сек.</t>
+    <t>1 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>1022</t>
@@ -9059,7 +9059,7 @@
     <t>migo</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 48 сек.</t>
+    <t>1 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>1023</t>
@@ -9068,7 +9068,7 @@
     <t>AlexKlav</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 46 сек.</t>
+    <t>1 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>1024</t>
@@ -9077,7 +9077,7 @@
     <t>Helsereet</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 44 сек.</t>
+    <t>1 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1025</t>
@@ -9086,7 +9086,7 @@
     <t>lar_k</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 43 сек.</t>
+    <t>1 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>1026</t>
@@ -9095,7 +9095,7 @@
     <t>Lexx345</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 42 сек.</t>
+    <t>1 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>1027</t>
@@ -9104,7 +9104,7 @@
     <t>Serpets</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 35 сек.</t>
+    <t>1 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>1028</t>
@@ -9113,7 +9113,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 30 сек.</t>
+    <t>1 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>1029</t>
@@ -9122,7 +9122,7 @@
     <t>ANTggle</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 28 сек.</t>
+    <t>1 ч. 03 мин. 28 сек.</t>
   </si>
   <si>
     <t>1030</t>
@@ -9131,7 +9131,7 @@
     <t>moraq</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>1031</t>
@@ -9140,7 +9140,7 @@
     <t>john_lennon228</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 12 сек.</t>
+    <t>1 ч. 03 мин. 12 сек.</t>
   </si>
   <si>
     <t>1032</t>
@@ -9149,7 +9149,7 @@
     <t>og123AI</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 6 сек.</t>
+    <t>1 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>1033</t>
@@ -9158,7 +9158,7 @@
     <t>ayarayarovich</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 2 сек.</t>
+    <t>1 ч. 03 мин. 02 сек.</t>
   </si>
   <si>
     <t>1034</t>
@@ -9167,7 +9167,7 @@
     <t>vitalya199529</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 0 сек.</t>
+    <t>1 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>1035</t>
@@ -9176,7 +9176,7 @@
     <t>hyperX</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 58 сек.</t>
+    <t>1 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>1036–1037</t>
@@ -9185,7 +9185,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 56 сек.</t>
+    <t>1 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>IG3000</t>
@@ -9197,7 +9197,7 @@
     <t>hellomoto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 52 сек.</t>
+    <t>1 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>1039</t>
@@ -9206,7 +9206,7 @@
     <t>fshark</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>1040</t>
@@ -9215,7 +9215,7 @@
     <t>artemsan15</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>1041</t>
@@ -9224,7 +9224,7 @@
     <t>Coreee4</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 36 сек.</t>
+    <t>1 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>1042</t>
@@ -9233,7 +9233,7 @@
     <t>Khasanchik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>1043</t>
@@ -9242,7 +9242,7 @@
     <t>Dim37</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>1044</t>
@@ -9251,7 +9251,7 @@
     <t>Player2SE</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 26 сек.</t>
+    <t>1 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>1045</t>
@@ -9260,7 +9260,7 @@
     <t>JimTheFish</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 24 сек.</t>
+    <t>1 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>1046</t>
@@ -9269,7 +9269,7 @@
     <t>batyrkhan4ik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 22 сек.</t>
+    <t>1 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>1047</t>
@@ -9278,7 +9278,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 17 сек.</t>
+    <t>1 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>1048</t>
@@ -9287,7 +9287,7 @@
     <t>nikpom</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 16 сек.</t>
+    <t>1 ч. 02 мин. 16 сек.</t>
   </si>
   <si>
     <t>1049</t>
@@ -9296,7 +9296,7 @@
     <t>новичок16</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 8 сек.</t>
+    <t>1 ч. 02 мин. 08 сек.</t>
   </si>
   <si>
     <t>1050</t>
@@ -9305,7 +9305,7 @@
     <t>marvelage</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>1051</t>
@@ -9314,7 +9314,7 @@
     <t>lana-banana</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 46 сек.</t>
+    <t>1 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>1052</t>
@@ -9323,7 +9323,7 @@
     <t>AleksNormal2012</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 43 сек.</t>
+    <t>1 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>1053</t>
@@ -9332,7 +9332,7 @@
     <t>viktor777s</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 34 сек.</t>
+    <t>1 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>1054</t>
@@ -9341,7 +9341,7 @@
     <t>samq</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>1055</t>
@@ -9350,7 +9350,7 @@
     <t>Nebuchadnezzar</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 26 сек.</t>
+    <t>1 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>1056</t>
@@ -9359,7 +9359,7 @@
     <t>-Sid</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>1057</t>
@@ -9368,7 +9368,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 6 сек.</t>
+    <t>1 ч. 01 мин. 06 сек.</t>
   </si>
   <si>
     <t>1058</t>
@@ -9377,7 +9377,7 @@
     <t>Awooo</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 49 сек.</t>
+    <t>1 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>1059</t>
@@ -9386,7 +9386,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 44 сек.</t>
+    <t>1 ч. 00 мин. 44 сек.</t>
   </si>
   <si>
     <t>1060</t>
@@ -9395,7 +9395,7 @@
     <t>enyamagazovyt</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 37 сек.</t>
+    <t>1 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>1061</t>
@@ -9404,7 +9404,7 @@
     <t>Leyrus</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 32 сек.</t>
+    <t>1 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>1062</t>
@@ -9413,7 +9413,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 28 сек.</t>
+    <t>1 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>1063</t>
@@ -9422,7 +9422,7 @@
     <t>pushka_589889</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 14 сек.</t>
+    <t>1 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>1064</t>
@@ -9431,7 +9431,7 @@
     <t>proydenko</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 12 сек.</t>
+    <t>1 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>1065–1066</t>
@@ -9506,7 +9506,7 @@
     <t>Vk625</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 3 сек.</t>
+    <t>0 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>1074</t>
@@ -9572,7 +9572,7 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 6 сек.</t>
+    <t>0 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>1082–1083</t>
@@ -9581,7 +9581,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 1 сек.</t>
+    <t>0 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>Listik_Explus</t>
@@ -9674,7 +9674,7 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>1094</t>
@@ -9818,7 +9818,7 @@
     <t>ja_ja_banx</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 6 сек.</t>
+    <t>0 ч. 55 мин. 06 сек.</t>
   </si>
   <si>
     <t>1112</t>
@@ -9827,7 +9827,7 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 5 сек.</t>
+    <t>0 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>1113</t>
@@ -9836,7 +9836,7 @@
     <t>печеньки</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 0 сек.</t>
+    <t>0 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>1114</t>
@@ -9920,7 +9920,7 @@
     <t>Leruk</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 7 сек.</t>
+    <t>0 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>1124</t>
@@ -9929,7 +9929,7 @@
     <t>Povelitel</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 6 сек.</t>
+    <t>0 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>1125</t>
@@ -10001,7 +10001,7 @@
     <t>golyj_jozhik</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 4 сек.</t>
+    <t>0 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>1133</t>
@@ -10082,7 +10082,7 @@
     <t>GreenMine</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 7 сек.</t>
+    <t>0 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>1142</t>
@@ -10091,7 +10091,7 @@
     <t>_Aectann_</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 4 сек.</t>
+    <t>0 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>1143</t>
@@ -10100,7 +10100,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 2 сек.</t>
+    <t>0 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>1144</t>
@@ -10109,7 +10109,7 @@
     <t>Ultinmate</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 0 сек.</t>
+    <t>0 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>1145</t>
@@ -10196,7 +10196,7 @@
     <t>вомбат</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 8 сек.</t>
+    <t>0 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>1156–1157</t>
@@ -10205,7 +10205,7 @@
     <t>McRoc01</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 7 сек.</t>
+    <t>0 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>Wantnonick</t>
@@ -10217,7 +10217,7 @@
     <t>enly1</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 6 сек.</t>
+    <t>0 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>1159</t>
@@ -10292,7 +10292,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>0 ч. 50 мин. 5 сек.</t>
+    <t>0 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>1168</t>
@@ -10385,7 +10385,7 @@
     <t>nowhere_man</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 8 сек.</t>
+    <t>0 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>1179</t>
@@ -10394,7 +10394,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 7 сек.</t>
+    <t>0 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>1180</t>
@@ -10403,7 +10403,7 @@
     <t>Dyooxa</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 4 сек.</t>
+    <t>0 ч. 49 мин. 04 сек.</t>
   </si>
   <si>
     <t>1181–1182</t>
@@ -10412,7 +10412,7 @@
     <t>ritakul2</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 0 сек.</t>
+    <t>0 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>proximo39</t>
@@ -10505,7 +10505,7 @@
     <t>pq72jqq1m6</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 8 сек.</t>
+    <t>0 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>tws</t>
@@ -10517,7 +10517,7 @@
     <t>anialPro</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 7 сек.</t>
+    <t>0 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>1197</t>
@@ -10526,7 +10526,7 @@
     <t>GhostInside</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 4 сек.</t>
+    <t>0 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>1198</t>
@@ -10535,7 +10535,7 @@
     <t>taff</t>
   </si>
   <si>
-    <t>0 ч. 48 мин. 1 сек.</t>
+    <t>0 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>1199</t>
@@ -10616,7 +10616,7 @@
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 9 сек.</t>
+    <t>0 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>1208</t>
@@ -10625,7 +10625,7 @@
     <t>godmim</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 5 сек.</t>
+    <t>0 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>1209</t>
@@ -10634,7 +10634,7 @@
     <t>programmer15</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 2 сек.</t>
+    <t>0 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>1210</t>
@@ -10709,7 +10709,7 @@
     <t>ShornDevil</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 5 сек.</t>
+    <t>0 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>1219</t>
@@ -10718,7 +10718,7 @@
     <t>pholin</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 0 сек.</t>
+    <t>0 ч. 46 мин. 00 сек.</t>
   </si>
   <si>
     <t>1220–1221</t>
@@ -10766,7 +10766,7 @@
     <t>ъуък</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 3 сек.</t>
+    <t>0 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>Follow_Me</t>
@@ -10859,7 +10859,7 @@
     <t>МайлзГ</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 6 сек.</t>
+    <t>0 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>1237–1238</t>
@@ -10868,7 +10868,7 @@
     <t>Mirocidij</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>Maire</t>
@@ -11021,7 +11021,7 @@
     <t>KarimGan</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 7 сек.</t>
+    <t>0 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>1257</t>
@@ -11030,7 +11030,7 @@
     <t>nokkze</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 4 сек.</t>
+    <t>0 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>1258</t>
@@ -11138,7 +11138,7 @@
     <t>egortar</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 7 сек.</t>
+    <t>0 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>1270</t>
@@ -11147,7 +11147,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 5 сек.</t>
+    <t>0 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>1271</t>
@@ -11183,7 +11183,7 @@
     <t>kkspy</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 5 сек.</t>
+    <t>0 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>1275</t>
@@ -11345,7 +11345,7 @@
     <t>kdwkd</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 7 сек.</t>
+    <t>0 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>1293</t>
@@ -11354,7 +11354,7 @@
     <t>alex_crazy</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 5 сек.</t>
+    <t>0 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>1294</t>
@@ -11363,7 +11363,7 @@
     <t>Skymikun</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 1 сек.</t>
+    <t>0 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>1295</t>
@@ -11444,7 +11444,7 @@
     <t>sofarewell</t>
   </si>
   <si>
-    <t>0 ч. 37 мин. 7 сек.</t>
+    <t>0 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>1304–1305</t>
@@ -11504,7 +11504,7 @@
     <t>1asd</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 7 сек.</t>
+    <t>0 ч. 36 мин. 07 сек.</t>
   </si>
   <si>
     <t>1312–1313</t>
@@ -11513,7 +11513,7 @@
     <t>vlks</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 4 сек.</t>
+    <t>0 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>Кросафчег</t>
@@ -11573,7 +11573,7 @@
     <t>DasParfum</t>
   </si>
   <si>
-    <t>0 ч. 35 мин. 7 сек.</t>
+    <t>0 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>1321</t>
@@ -11666,7 +11666,7 @@
     <t>dampilko</t>
   </si>
   <si>
-    <t>0 ч. 34 мин. 0 сек.</t>
+    <t>0 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>1332</t>
@@ -11765,7 +11765,7 @@
     <t>Just_Monika</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 9 сек.</t>
+    <t>0 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>1343</t>
@@ -11774,7 +11774,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 7 сек.</t>
+    <t>0 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>1344</t>
@@ -11783,7 +11783,7 @@
     <t>aa3</t>
   </si>
   <si>
-    <t>0 ч. 33 мин. 4 сек.</t>
+    <t>0 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>1345</t>
@@ -11867,7 +11867,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 7 сек.</t>
+    <t>0 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>1355</t>
@@ -11876,7 +11876,7 @@
     <t>Lookatmybar</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 5 сек.</t>
+    <t>0 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>1356–1357</t>
@@ -11990,7 +11990,7 @@
     <t>Lucky_Cat</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 5 сек.</t>
+    <t>0 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>1370</t>
@@ -11999,7 +11999,7 @@
     <t>mafixxxxx</t>
   </si>
   <si>
-    <t>0 ч. 30 мин. 0 сек.</t>
+    <t>0 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>1371</t>
@@ -12065,7 +12065,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 3 сек.</t>
+    <t>0 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>1379</t>
@@ -12074,7 +12074,7 @@
     <t>Sterios</t>
   </si>
   <si>
-    <t>0 ч. 29 мин. 1 сек.</t>
+    <t>0 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>1380</t>
@@ -12092,7 +12092,7 @@
     <t>4eburaska</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 2 сек.</t>
+    <t>0 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>1382</t>
@@ -12101,7 +12101,7 @@
     <t>al1as</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 1 сек.</t>
+    <t>0 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>1383</t>
@@ -12200,7 +12200,7 @@
     <t>такеруу</t>
   </si>
   <si>
-    <t>0 ч. 26 мин. 6 сек.</t>
+    <t>0 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>ilvimafr</t>
@@ -12239,7 +12239,7 @@
     <t>valerikk</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 4 сек.</t>
+    <t>0 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>1399</t>
@@ -12248,7 +12248,7 @@
     <t>DarkP1xel337</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 2 сек.</t>
+    <t>0 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>1400</t>
@@ -12356,7 +12356,7 @@
     <t>Alex-san</t>
   </si>
   <si>
-    <t>0 ч. 21 мин. 0 сек.</t>
+    <t>0 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>1412</t>
@@ -12401,7 +12401,7 @@
     <t>sergiorevazz</t>
   </si>
   <si>
-    <t>0 ч. 20 мин. 0 сек.</t>
+    <t>0 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>1417</t>
@@ -12437,7 +12437,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>0 ч. 19 мин. 1 сек.</t>
+    <t>0 ч. 19 мин. 01 сек.</t>
   </si>
   <si>
     <t>1421</t>
